--- a/src/main/resources/AAATestData.xlsx
+++ b/src/main/resources/AAATestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdnas/eclipse-workspace/NorthEastAAA/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4178D278-5320-5A43-88DB-C72B476CC6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED01EA9A-084C-3C49-9FB0-95E36C047279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{AC99D042-E510-574D-940B-71FE3785C1A0}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>Zip</t>
   </si>
   <si>
-    <t>homeTitle</t>
-  </si>
-  <si>
     <t>Welcome to AAA Northeast</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>07002</t>
+  </si>
+  <si>
+    <t>Home Title</t>
   </si>
 </sst>
 </file>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EE7189-A164-014C-9627-0402B040DD3D}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -430,70 +430,70 @@
     <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
